--- a/Quellen und Vorlagen/Excell-Sheets/statistic_id208599_anzahl-der-apps-in-den-top-app-stores-2015.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/statistic_id208599_anzahl-der-apps-in-den-top-app-stores-2015.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.bohn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Bohn\Developer\Bachelorarbeit_Repo\Quellen und Vorlagen\Excell-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="52660" yWindow="-1720" windowWidth="33060" windowHeight="15060" activeTab="1"/>
+    <workbookView xWindow="52665" yWindow="-1725" windowWidth="33060" windowHeight="15060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -229,81 +229,16 @@
     <cellStyle name="Currency [0]" xfId="3"/>
     <cellStyle name="Normal" xfId="6"/>
     <cellStyle name="Percent" xfId="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -330,12 +265,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -343,7 +275,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
+              <a:rPr lang="de-DE" sz="1600" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Anzahl der Apps in den Top App-Stores 2015</a:t>
             </a:r>
           </a:p>
@@ -363,12 +299,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -470,15 +403,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -543,16 +473,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5E6</c:v>
+                  <c:v>1500000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4E6</c:v>
+                  <c:v>1400000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>360000.0</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>340000.0</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,11 +497,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-2081905744"/>
-        <c:axId val="2103760688"/>
+        <c:axId val="601365536"/>
+        <c:axId val="231245992"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="2103760688"/>
+        <c:axId val="231245992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,10 +539,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -622,11 +549,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081905744"/>
+        <c:crossAx val="601365536"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2081905744"/>
+        <c:axId val="601365536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,12 +582,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -669,7 +594,8 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103760688"/>
+        <c:crossAx val="231245992"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -693,10 +619,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -715,7 +638,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1645,33 +1568,33 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1711,7 +1634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1719,7 +1642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +1650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1735,7 +1658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="51" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1743,12 +1666,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +1679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1764,7 +1687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1772,7 +1695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1798,28 +1721,28 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1827,7 +1750,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1835,7 +1758,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1843,7 +1766,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1851,13 +1774,13 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="95" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>